--- a/biology/Botanique/Parc_urbain_Joventino_Silva/Parc_urbain_Joventino_Silva.xlsx
+++ b/biology/Botanique/Parc_urbain_Joventino_Silva/Parc_urbain_Joventino_Silva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc Urbain Joventino da Silva, plus connu comme Parque da Cidade, est le plus célèbre parc urbain de Salvador de Bahia.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec 1,7 million d'extension[Quoi ?], c'est un lieu de préservation de la forêt atlantique, la végétation typique de la côte brésilienne. La faune est riche et variée, avec de petits mammifères, des oiseaux, des reptiles et des amphibiens. Créé en 1973, on y trouve une aire de jeux pour les enfants, une piste de jogging et de vélo, une place pour les personnes âgées, ainsi qu'une aire de pique-nique. 
 Autrefois, le territoire appartenait à l'agriculteur Manuel Dias da Silva, puis à son fils, Joventino Pereira da Silva. Joventino a légué le parc à la ville de Salvador dans les années 1970. Le parc est très connu pour son amphithéâtre Dorival Caymmi, qui propose des concerts gratuits.
